--- a/config_aomi_8.24/game_module_config.xlsx
+++ b/config_aomi_8.24/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6149" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1023">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3868,18 +3868,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_026_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_029</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_024_xuegao</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_017_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3897,6 +3885,22 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_030</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_exit_ask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出询问弹窗</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_Exit_AskManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4570,13 +4574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12644,7 +12648,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12667,7 +12671,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1013</v>
@@ -12690,7 +12694,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12736,7 +12740,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13095,7 +13099,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1012</v>
@@ -13411,6 +13415,32 @@
       </c>
       <c r="I347" s="19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
